--- a/data/long_razon/P24_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_5-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-20,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-39,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-55,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>112,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-32,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-36,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-35,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-37,2; 53,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 29,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-66,59; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-70,89; -36,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,8; 234,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 8,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-52,27; -13,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 81,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-55,45; -9,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-50,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>95,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-5,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-18,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-9,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-70,68; -14,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,13; 260,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 41,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 100,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,35; 43,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,88; 28,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 15,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 86,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,6; 18,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-26,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-14,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-20,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-59,99; 25,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 47,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 92,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 18,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 65,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 24,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,98; 10,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 41,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 34,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-25,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 14,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 106,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 101,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 54,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>37,37; 167,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 13,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 18,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,9; 114,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 31,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>114,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-25,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>102,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 107,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,32; 300,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-40,75; 39,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-51,36; 13,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,16; 195,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,85; 63,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,33; 24,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>39,63; 190,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 34,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>257,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>122,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 185,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>47,11; 1196,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-49,51; 118,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 104,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 198,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 52,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 97,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>37,83; 251,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 49,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-21,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>57,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,83%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-36,98; -0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 72,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 17,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-25,4; 3,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,48; 83,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,36; 7,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-26,77; -2,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,38; 70,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 5,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_5-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_5-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.1369253693655285</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.349788783919305</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.4779702981870471</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.09510174868302373</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.05145533963777689</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.581383163157137</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.166549579441641</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.3683296212595816</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.1111779638938487</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3022652169729184</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.4108795167251829</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.1940287701281457</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.4270615902530462</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.1032915601039623</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.1052124386422835</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4426541109884328</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6163525828470759</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7024967818090845</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.4656704401199405</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.5457795975600607</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7217873905006009</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.4721475526200873</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6052990549622682</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3055376596292857</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.3049867502813926</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.5668055707380117</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.1350840068181627</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.6106783528108952</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.2541611974009614</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.317296871968559</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.3653346733216177</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.08497691790669075</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-0.1145096507458213</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.089004608234743</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.075089712180197</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>-0.3760503736268043</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.457020480946682</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.01586507493644187</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.7674435107430859</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>1.454812825626062</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>-0.2272049597176607</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.6830776527036798</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>-0.1956253541461301</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.6115556359354122</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>0.8385081843834475</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.5222976953179997</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.05853700861127</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1458307490499315</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.04200770160532404</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.7138277655240933</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.153407403720612</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.01897166375833307</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.05729657195939891</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.2510535043524322</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3844049516707869</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.2490036214311227</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3689836855051702</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.1019601493952833</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>-0.1345143631335912</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>-0.3296314714413551</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.7489545343646582</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.1658248763980494</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4666249584842722</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.5247949841226902</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.9175207161671461</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2893039224580531</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.317116221444158</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.334723079679577</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.5066570814454655</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.07910422665707717</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4656106454454393</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>0.004612222446904217</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.3264174377868561</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.423595628656399</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.580891851164725</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -802,21 +952,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>-0.2145147390907586</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.642554796924705</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3932717401033973</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.030504854906456</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.2935020159510774</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.686093607030092</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.5024457985440335</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2778454739279183</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1112381816709081</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.204079636331056</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.05658269795110967</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.8915064808942755</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.2031741231403545</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.4404052287226164</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.04894061331781299</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1009,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2545359025019446</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.08339485715210876</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1338903608411701</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1757919800284545</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.4137850772418749</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1473491083911964</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2476327549298187</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.0177375965357425</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.05206601202081183</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.03283871043915064</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.1994203956224964</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.08860464736923443</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.04186657645939958</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.04351556592007756</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>-0.2251097895990491</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1062,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5687779745305249</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4808064010260081</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2823622414094777</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2166488500914758</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.6885658069618621</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3509266714306162</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.04897345109961215</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2345739740721287</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3040618922755583</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.3613105294306091</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.4009706703825857</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.1733501452146904</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.1767204384838653</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.1770464192574137</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>-0.4561911895066618</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1115,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.2664938415695539</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4154621092060948</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.879220763551454</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.7405094740564262</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.01403429719493932</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.220033670298306</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.638202079939224</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.2560733488046288</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.272038251279785</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.4408160113070257</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.07118814482372134</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.4610308750709687</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.3241406637567522</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.3249622868838395</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>0.09776194003126606</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1172,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.2670669331216061</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3456932432545158</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3649453324057139</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.4425598347786608</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.03403135424550485</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.10391529860518</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.9193911905745598</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1299076779726834</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.06145452705487985</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>-0.04746444403994602</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.06438362571568841</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.6673069651645623</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.05808602448733508</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>-0.1964473639695162</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>-0.005626943377483476</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1225,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.5459318323311044</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2353893367272224</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.06919480634186351</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.665150390643068</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.4013603282294873</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2189913734992852</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.3746226851515521</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.3306235695012</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.225349887781651</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.3607897620935856</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2683304482471433</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2407991904974187</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.1535332781584448</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>-0.3929665315965816</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.2777074410196484</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1278,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.1027958229891626</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.101381422261704</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9383298193546094</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-0.1441929970652578</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6798974525643824</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5318135432847064</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.650531304670236</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.130679897131932</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.3919235785236614</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.5070574444973371</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2163577339785138</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.242963599968804</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>0.3392418927581724</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.01867817317933991</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>0.4031468275917134</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1335,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.1373668489464009</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.211212608568311</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.08963863249901638</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.4560139178167954</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.216092302353619</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.2579016126182662</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1.047512603197248</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.09200960938013557</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>-0.4420289035918499</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.2213818576573296</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.123938228704622</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>1.109275764505377</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>0.009921919478685447</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>-0.4482844059496859</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.2189387960264928</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1388,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.3775907218202049</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.2856361769517335</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.4420771932817914</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.6949927668096333</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.2894989113107288</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.526652522490847</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.3287082661704903</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.2617834536473692</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.6754748465445886</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.1930708570549355</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.3707983479631869</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.4926749643363156</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.2313582797573034</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.611079831718113</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.1011419539212645</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1441,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.393020427674752</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.460921683140067</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.3888207040774937</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.03657756544474266</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>1.068122555831343</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.1151797308280292</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>2.307247399996418</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.5594992655537553</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>-0.1006401374277896</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.8850275326986706</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.2562123510966303</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>2.106086238089845</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.3398340502771919</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>-0.1606798385016921</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>0.695974751555392</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1498,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.3766068037381697</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.607370481936396</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.002531684152887238</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.334824511010581</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.3041498681309169</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.2550670039247304</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.7421721064588014</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.1252304840401924</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.1823332918058023</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.4390642588369773</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>0.2853441724583261</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>1.165862965516397</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.08392736062139132</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>0.4120193236977504</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>-0.3061198405433849</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1551,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.4130333246187002</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>0.5317116847726545</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5184519577083738</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.1355806457080829</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.5926771573997238</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.2288876520056304</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.01070571159781736</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.2436410667915932</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.3894125568020784</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.7180361938367874</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.2025914071506845</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>0.3512267905125085</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.2427465450395728</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>-0.2031072879050736</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>-0.6338411390690092</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1604,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>2.598990439865843</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>12.29081377617651</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.184404510767853</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>5.408338002201219</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2.431820143276009</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1.198965559285563</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1.779586307271191</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>0.7245732751657664</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.02648988114757</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.098768536880531</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>1.026100306347182</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>2.558865391462205</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>0.5481628587458701</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>1.258273204291154</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>0.2557021188282004</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1661,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>-0.2349969500370185</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.3050748996929374</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.07176787620997212</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-0.07577354344475849</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.2387821434257622</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1358113704134728</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.5866639531686537</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.06808251233065603</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>-0.07116862118202447</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.009167479950902526</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>-0.179537798581558</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.4615161456954192</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>-0.0696960494052952</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>-0.07329324887214028</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>-0.1206032595862448</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1714,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.3925807480038372</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>0.03705937393771278</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2354973360133222</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.2810644855948978</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.4088698139235925</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.2616737114314697</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.3696486366695501</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1886919963850594</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.2134064756231218</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1928313737438277</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.2830388139088078</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2645745085479043</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.1738713577476493</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>-0.2066064799027448</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>-0.2600119049787504</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1767,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>-0.04754473534048317</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6901579751911461</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.1237178317624399</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.2475238461381422</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.004937759509760059</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.02552121403544282</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.8592487684993164</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.06026774902746638</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.08566477115044557</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.235827780491681</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>-0.05411935234580448</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.6636500074730525</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.04927329312977129</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0.07749707520035951</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0.03440259684050837</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
